--- a/medicine/Enfance/Liste_d'enfants_dans_l'histoire/Liste_d'enfants_dans_l'histoire.xlsx
+++ b/medicine/Enfance/Liste_d'enfants_dans_l'histoire/Liste_d'enfants_dans_l'histoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27enfants_dans_l%27histoire</t>
+          <t>Liste_d'enfants_dans_l'histoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceci est une liste non exhaustive d'enfants dans l'histoire. Adolescent désigne ici une personne de 13-19 ans, et enfants entre 4 et 12 ans. Les bébés ont moins de 4 ans. Les personnes qui entrent en considération pour cette liste le sont :
 parce qu'elles sont mortes avant l'âge en question ;
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27enfants_dans_l%27histoire</t>
+          <t>Liste_d'enfants_dans_l'histoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liste de fœtus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le fœtus mort-né dont le père était le roi Charles IV était important avant sa naissance. Charles IV est décédé le 1er février 1328 ; il avait une fille, Marie et une femme enceinte. Si le fœtus avait été masculin, il aurait déjà été roi in utero ; s'il avait été féminin, le trône aurait passé à Philippe VI. Le 1er avril 1328 Blanche est née, cessant dès lors d'avoir son importance dans l'histoire.</t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27enfants_dans_l%27histoire</t>
+          <t>Liste_d'enfants_dans_l'histoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste de bébés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Charles A. Lindbergh III (1930-1932), enlevé et assassiné
 Claudia Augusta, morte à l'âge de quatre mois, fille de l'empereur Néron
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27enfants_dans_l%27histoire</t>
+          <t>Liste_d'enfants_dans_l'histoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Liste d'enfants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Baudouin V (1177-1186), roi de Jérusalem
 Le roi d'Angleterre Edward V (Prince de la Tour) (1470-1483)
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27enfants_dans_l%27histoire</t>
+          <t>Liste_d'enfants_dans_l'histoire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Liste d'adolescents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Toutânkhamon, pharaon d'Égypte du XIVe siècle av. J.-C., décédé vers l'âge de 18 ans
 Gordien III (20 janvier 225–11 février 244), empereur romain, assassiné par des soldats mutins
